--- a/Project/MAP.xlsx
+++ b/Project/MAP.xlsx
@@ -1,36 +1,216 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\c_Programme\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李鹏程\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409776E9-42CE-40FB-ABBD-99F61ED592A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0447A66-7675-4244-AE9B-4B61A06576F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+  <si>
+    <t>主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">炮台16 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮台18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,6 +220,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -99,12 +295,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -385,23 +592,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.58203125" style="1"/>
+    <col min="1" max="1" width="10.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -410,126 +618,676 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="6"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="6"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="6"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">B5:M9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="11" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
